--- a/model/Outputs/2. No PV/Output Files/10/Output_57_43.xlsx
+++ b/model/Outputs/2. No PV/Output Files/10/Output_57_43.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2894508.965023996</v>
+        <v>3017976.253205567</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>390009.9202269217</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Total Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>390009.9202269217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>25040.62090061318</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Total Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>25040.62090061318</v>
       </c>
     </row>
   </sheetData>
@@ -7920,10 +7960,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>57.27582010164213</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7932,25 +7972,25 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>438.3070987855455</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N2" t="n">
-        <v>66.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R2" t="n">
-        <v>134.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S2" t="n">
-        <v>82.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -8002,22 +8042,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>281.1768755878564</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8026,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8078,16 +8118,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>136.7697402445604</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>227.9959222222222</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8157,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>134.3207615018508</v>
+        <v>57.27582010164208</v>
       </c>
       <c r="J5" t="n">
         <v>35.04300624509033</v>
@@ -8169,10 +8209,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>133.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N5" t="n">
-        <v>66.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O5" t="n">
         <v>70.24786957409245</v>
@@ -8181,13 +8221,13 @@
         <v>0.2870600406814136</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R5" t="n">
-        <v>134.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S5" t="n">
-        <v>147.9213665311534</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -8236,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8245,19 +8285,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>151.5541478367086</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8312,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>29.33068538587851</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -8321,19 +8361,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>217.0515697491206</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -8394,10 +8434,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>134.3207615018508</v>
+        <v>57.27582010164201</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8406,25 +8446,25 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>133.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N8" t="n">
-        <v>66.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R8" t="n">
-        <v>305.1439248040318</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S8" t="n">
-        <v>82.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -8473,13 +8513,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>59.22348041906512</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8488,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>350.7819770626954</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8549,13 +8589,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>29.33068538587851</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>169.4692651351351</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8564,13 +8604,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>58.15531689713952</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -8634,7 +8674,7 @@
         <v>134.3207615018508</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8643,25 +8683,25 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>259.2204442631339</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N11" t="n">
-        <v>77.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R11" t="n">
-        <v>145.4197151626545</v>
+        <v>448.978168834342</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -8710,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8719,10 +8759,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8734,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.51885379515905</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8792,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>111.3356134968228</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8801,10 +8841,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8868,10 +8908,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>134.3207615018508</v>
+        <v>62.82688682079402</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8880,25 +8920,25 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>129.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N14" t="n">
-        <v>62.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R14" t="n">
-        <v>320.4166520767592</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S14" t="n">
-        <v>78.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -8947,13 +8987,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8962,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>115.9210351156636</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -8971,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9023,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>29.33068538587851</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -9038,13 +9078,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>85.59958502502282</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9105,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>134.3207615018508</v>
+        <v>69.60022080601402</v>
       </c>
       <c r="J17" t="n">
         <v>35.04300624509033</v>
@@ -9117,25 +9157,25 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>124.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N17" t="n">
-        <v>57.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>172.8226843274854</v>
       </c>
       <c r="R17" t="n">
-        <v>131.3548105544111</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S17" t="n">
-        <v>73.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -9187,31 +9227,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>23.72913547087386</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9263,16 +9303,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>20.02269654914047</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>227.9959222222222</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9281,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9342,10 +9382,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9354,25 +9394,25 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>124.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N20" t="n">
-        <v>405.6575655766998</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R20" t="n">
-        <v>125.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S20" t="n">
-        <v>73.77509274964024</v>
+        <v>178.4701570635875</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -9421,16 +9461,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9439,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.24104911358752</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9500,25 +9540,25 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>49.03885861007238</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9579,10 +9619,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9591,25 +9631,25 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>124.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N23" t="n">
-        <v>405.6575655766998</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R23" t="n">
-        <v>125.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S23" t="n">
-        <v>73.77509274964024</v>
+        <v>178.4701570635876</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -9661,22 +9701,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>12.37309540035589</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9685,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9737,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -9746,16 +9786,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>227.9959222222222</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>30.59570883229454</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9816,10 +9856,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9828,22 +9868,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>144.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N26" t="n">
-        <v>176.8253711420371</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R26" t="n">
-        <v>145.4197151626545</v>
+        <v>448.9781688343421</v>
       </c>
       <c r="S26" t="n">
         <v>243.4777578001058</v>
@@ -9895,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9907,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>186.5880994004917</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9916,13 +9956,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -9974,16 +10014,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>152.3455058355325</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10056,7 +10096,7 @@
         <v>134.3207615018508</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10065,25 +10105,25 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>122.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N29" t="n">
-        <v>278.9731677112126</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R29" t="n">
-        <v>123.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S29" t="n">
-        <v>71.77509274964024</v>
+        <v>194.0074713545705</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -10132,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10147,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>182.8072109885128</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10208,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>29.33068538587851</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -10217,16 +10257,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>84.10381896441677</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>227.9959222222222</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10290,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>134.3207615018508</v>
+        <v>102.0007068076444</v>
       </c>
       <c r="J32" t="n">
         <v>35.04300624509033</v>
@@ -10302,25 +10342,25 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>416.4435417216308</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N32" t="n">
-        <v>27.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R32" t="n">
-        <v>95.41971516265448</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S32" t="n">
-        <v>43.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -10372,16 +10412,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>242.04275308998</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10390,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10448,10 +10488,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>169.4692651351351</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10463,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>202.3873064225566</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10527,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>102.0007068076446</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10542,22 +10582,22 @@
         <v>544.2621276423173</v>
       </c>
       <c r="N35" t="n">
-        <v>27.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R35" t="n">
-        <v>95.41971516265448</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S35" t="n">
-        <v>85.32027457589481</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -10606,13 +10646,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>78.26551665441913</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10624,13 +10664,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10685,10 +10725,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.6291426688029</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10697,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10764,10 +10804,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>134.3207615018508</v>
+        <v>102.0007068076444</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10776,10 +10816,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>380.9516183519472</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N38" t="n">
-        <v>27.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O38" t="n">
         <v>70.24786957409245</v>
@@ -10788,13 +10828,13 @@
         <v>0.2870600406814136</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R38" t="n">
-        <v>95.41971516265448</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S38" t="n">
-        <v>43.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -10843,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10855,13 +10895,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>347.2703584028559</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10870,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10922,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -10934,13 +10974,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>39.73118045350667</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11001,10 +11041,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.57120615595414</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11013,25 +11053,25 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>155.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N41" t="n">
-        <v>280.5280361925027</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R41" t="n">
-        <v>156.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S41" t="n">
-        <v>104.7750927496402</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -11086,16 +11126,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>202.0153401796244</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>350.7819770626954</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,13 +11199,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>16.19987489263769</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11174,10 +11214,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11241,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11250,25 +11290,25 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>192.813933037712</v>
+        <v>494.7888145584354</v>
       </c>
       <c r="N44" t="n">
-        <v>125.2489580698352</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R44" t="n">
-        <v>193.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S44" t="n">
-        <v>141.7750927496402</v>
+        <v>145.7750927496402</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -11323,22 +11363,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>32.74477826560314</v>
+        <v>36.74477826560314</v>
       </c>
       <c r="N45" t="n">
-        <v>350.7819770626954</v>
+        <v>2.781977062695432</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>4.359999381864662</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11396,10 +11436,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>124.4923731335122</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11411,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -24624,10 +24664,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.99931295557451</v>
+        <v>48.99931295557451</v>
       </c>
       <c r="C29" t="n">
-        <v>27.47457824299391</v>
+        <v>16.47457824299391</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24642,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>13.02773927029563</v>
+        <v>2.027739270295626</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24678,22 +24718,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>107.6191915811053</v>
+        <v>96.61919158110527</v>
       </c>
       <c r="U29" t="n">
-        <v>222.5217529288726</v>
+        <v>211.5217529288726</v>
       </c>
       <c r="V29" t="n">
-        <v>207.8510241668239</v>
+        <v>196.8510241668239</v>
       </c>
       <c r="W29" t="n">
-        <v>216.3734759809475</v>
+        <v>205.3734759809475</v>
       </c>
       <c r="X29" t="n">
-        <v>170.2818334606677</v>
+        <v>159.2818334606677</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.31743268280638</v>
+        <v>78.31743268280638</v>
       </c>
     </row>
     <row r="30">
@@ -24766,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.37314290982852</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24827,10 +24867,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>100.1821235684552</v>
+        <v>89.18212356845515</v>
       </c>
       <c r="R31" t="n">
-        <v>299.1956210454637</v>
+        <v>288.1956210454637</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25572,25 +25612,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>92.99931295557451</v>
+        <v>85.99931295557451</v>
       </c>
       <c r="C41" t="n">
-        <v>60.47457824299391</v>
+        <v>53.47457824299391</v>
       </c>
       <c r="D41" t="n">
-        <v>21.33915573984979</v>
+        <v>14.33915573984979</v>
       </c>
       <c r="E41" t="n">
-        <v>15.36328960686865</v>
+        <v>8.363289606868648</v>
       </c>
       <c r="F41" t="n">
-        <v>15.88962870801186</v>
+        <v>8.889628708011855</v>
       </c>
       <c r="G41" t="n">
-        <v>21.83274917143831</v>
+        <v>14.83274917143831</v>
       </c>
       <c r="H41" t="n">
-        <v>46.02773927029563</v>
+        <v>39.02773927029563</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25626,22 +25666,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>140.6191915811053</v>
+        <v>133.6191915811053</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5217529288726</v>
+        <v>248.5217529288726</v>
       </c>
       <c r="V41" t="n">
-        <v>240.8510241668239</v>
+        <v>233.8510241668239</v>
       </c>
       <c r="W41" t="n">
-        <v>249.3734759809475</v>
+        <v>242.3734759809475</v>
       </c>
       <c r="X41" t="n">
-        <v>203.2818334606677</v>
+        <v>196.2818334606677</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.3174326828064</v>
+        <v>115.3174326828064</v>
       </c>
     </row>
     <row r="42">
@@ -25708,19 +25748,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>10.68869740971195</v>
+        <v>3.688697409711949</v>
       </c>
       <c r="V42" t="n">
-        <v>25.51066719152016</v>
+        <v>18.51066719152016</v>
       </c>
       <c r="W42" t="n">
-        <v>43.37314290982852</v>
+        <v>36.37314290982852</v>
       </c>
       <c r="X42" t="n">
-        <v>30.86273944538755</v>
+        <v>23.86273944538755</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.39139276613435</v>
+        <v>3.391392766134345</v>
       </c>
     </row>
     <row r="43">
@@ -25775,13 +25815,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.1821235684552</v>
+        <v>126.1821235684552</v>
       </c>
       <c r="R43" t="n">
-        <v>332.1956210454637</v>
+        <v>325.1956210454637</v>
       </c>
       <c r="S43" t="n">
-        <v>20.54122605486401</v>
+        <v>13.54122605486401</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25809,25 +25849,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>129.9993129555745</v>
+        <v>133.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>97.47457824299391</v>
+        <v>101.4745782429939</v>
       </c>
       <c r="D44" t="n">
-        <v>58.33915573984979</v>
+        <v>62.33915573984979</v>
       </c>
       <c r="E44" t="n">
-        <v>52.36328960686865</v>
+        <v>56.36328960686865</v>
       </c>
       <c r="F44" t="n">
-        <v>52.88962870801186</v>
+        <v>56.88962870801186</v>
       </c>
       <c r="G44" t="n">
-        <v>58.83274917143831</v>
+        <v>62.83274917143831</v>
       </c>
       <c r="H44" t="n">
-        <v>83.02773927029563</v>
+        <v>87.02773927029563</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25863,22 +25903,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>177.6191915811053</v>
+        <v>181.6191915811053</v>
       </c>
       <c r="U44" t="n">
-        <v>292.5217529288726</v>
+        <v>296.5217529288726</v>
       </c>
       <c r="V44" t="n">
-        <v>277.8510241668239</v>
+        <v>281.8510241668239</v>
       </c>
       <c r="W44" t="n">
-        <v>286.3734759809475</v>
+        <v>290.3734759809475</v>
       </c>
       <c r="X44" t="n">
-        <v>240.2818334606677</v>
+        <v>244.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>159.3174326828064</v>
+        <v>163.3174326828064</v>
       </c>
     </row>
     <row r="45">
@@ -25888,10 +25928,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32.55655664632661</v>
+        <v>36.55655664632661</v>
       </c>
       <c r="C45" t="n">
-        <v>9.099912445519294</v>
+        <v>13.09991244551929</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25936,28 +25976,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.670541650500091</v>
+        <v>5.670541650500091</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>36.53401876295709</v>
+        <v>40.53401876295709</v>
       </c>
       <c r="U45" t="n">
-        <v>47.68869740971195</v>
+        <v>51.68869740971195</v>
       </c>
       <c r="V45" t="n">
-        <v>62.51066719152016</v>
+        <v>66.51066719152016</v>
       </c>
       <c r="W45" t="n">
-        <v>80.37314290982852</v>
+        <v>84.37314290982852</v>
       </c>
       <c r="X45" t="n">
-        <v>67.86273944538755</v>
+        <v>71.86273944538755</v>
       </c>
       <c r="Y45" t="n">
-        <v>47.39139276613435</v>
+        <v>51.39139276613435</v>
       </c>
     </row>
     <row r="46">
@@ -26012,13 +26052,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.1821235684552</v>
+        <v>174.1821235684552</v>
       </c>
       <c r="R46" t="n">
-        <v>369.1956210454637</v>
+        <v>373.1956210454637</v>
       </c>
       <c r="S46" t="n">
-        <v>57.54122605486401</v>
+        <v>61.54122605486401</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26112,13 +26152,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1114920.155047598</v>
+        <v>1114920.155047599</v>
       </c>
       <c r="C2" t="n">
-        <v>1114920.155047598</v>
+        <v>1114920.155047599</v>
       </c>
       <c r="D2" t="n">
-        <v>1114920.155047598</v>
+        <v>1114920.155047599</v>
       </c>
       <c r="E2" t="n">
         <v>1106043.601723124</v>
@@ -26139,7 +26179,7 @@
         <v>1106043.601723124</v>
       </c>
       <c r="K2" t="n">
-        <v>1121476.421470241</v>
+        <v>1127177.400542279</v>
       </c>
       <c r="L2" t="n">
         <v>1134326.886226573</v>
@@ -26151,10 +26191,10 @@
         <v>1134326.886226573</v>
       </c>
       <c r="O2" t="n">
-        <v>1095173.092590455</v>
+        <v>1102129.202590455</v>
       </c>
       <c r="P2" t="n">
-        <v>1053151.025459301</v>
+        <v>1048123.465459301</v>
       </c>
     </row>
     <row r="3">
@@ -26191,10 +26231,10 @@
         <v>295200</v>
       </c>
       <c r="K3" t="n">
-        <v>29600</v>
+        <v>38400</v>
       </c>
       <c r="L3" t="n">
-        <v>35200</v>
+        <v>26400</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26203,7 +26243,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>246400</v>
+        <v>252000</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26216,49 +26256,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676564.6107216044</v>
+        <v>661238.3508753207</v>
       </c>
       <c r="C4" t="n">
-        <v>674398.089160201</v>
+        <v>659034.6789135503</v>
       </c>
       <c r="D4" t="n">
-        <v>672228.6285770745</v>
+        <v>656828.0175332201</v>
       </c>
       <c r="E4" t="n">
-        <v>664721.4857323561</v>
+        <v>649333.7927026649</v>
       </c>
       <c r="F4" t="n">
-        <v>669427.6501437497</v>
+        <v>653934.9737275796</v>
       </c>
       <c r="G4" t="n">
-        <v>668993.6734154281</v>
+        <v>653449.6275606661</v>
       </c>
       <c r="H4" t="n">
-        <v>666801.4618110297</v>
+        <v>651219.9452119702</v>
       </c>
       <c r="I4" t="n">
-        <v>664606.18984365</v>
+        <v>648987.1501905258</v>
       </c>
       <c r="J4" t="n">
-        <v>653901.0832720282</v>
+        <v>638326.8746795477</v>
       </c>
       <c r="K4" t="n">
-        <v>660821.5684541186</v>
+        <v>648473.5324331651</v>
       </c>
       <c r="L4" t="n">
-        <v>666161.6818291728</v>
+        <v>650424.6979302901</v>
       </c>
       <c r="M4" t="n">
-        <v>663926.5652180272</v>
+        <v>648151.8797016104</v>
       </c>
       <c r="N4" t="n">
-        <v>661688.2348808618</v>
+        <v>645875.7935382542</v>
       </c>
       <c r="O4" t="n">
-        <v>636684.4110341991</v>
+        <v>624996.8546147157</v>
       </c>
       <c r="P4" t="n">
-        <v>610170.4866426388</v>
+        <v>593513.3738608632</v>
       </c>
     </row>
     <row r="5">
@@ -26295,7 +26335,7 @@
         <v>33627.6</v>
       </c>
       <c r="K5" t="n">
-        <v>35477.118</v>
+        <v>36401.877</v>
       </c>
       <c r="L5" t="n">
         <v>37831.05</v>
@@ -26307,10 +26347,10 @@
         <v>37831.05</v>
       </c>
       <c r="O5" t="n">
-        <v>32702.841</v>
+        <v>33291.324</v>
       </c>
       <c r="P5" t="n">
-        <v>29592.288</v>
+        <v>29256.012</v>
       </c>
     </row>
     <row r="6">
@@ -26320,49 +26360,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>395003.1853259939</v>
+        <v>410329.445172278</v>
       </c>
       <c r="C6" t="n">
-        <v>405969.7068873973</v>
+        <v>421333.1171340482</v>
       </c>
       <c r="D6" t="n">
-        <v>408139.1674705238</v>
+        <v>423539.7785143786</v>
       </c>
       <c r="E6" t="n">
-        <v>96494.51599076798</v>
+        <v>111882.209020459</v>
       </c>
       <c r="F6" t="n">
-        <v>401186.0766983792</v>
+        <v>416678.7531145493</v>
       </c>
       <c r="G6" t="n">
-        <v>403329.728054813</v>
+        <v>418873.7739095748</v>
       </c>
       <c r="H6" t="n">
-        <v>418321.939659211</v>
+        <v>433903.4562582707</v>
       </c>
       <c r="I6" t="n">
-        <v>420517.2116265907</v>
+        <v>436136.2512797151</v>
       </c>
       <c r="J6" t="n">
-        <v>123314.9184510956</v>
+        <v>138889.1270435763</v>
       </c>
       <c r="K6" t="n">
-        <v>395577.7350161221</v>
+        <v>403901.9911091134</v>
       </c>
       <c r="L6" t="n">
-        <v>395134.1543974005</v>
+        <v>419671.1382962834</v>
       </c>
       <c r="M6" t="n">
-        <v>432569.2710085461</v>
+        <v>448343.9565249629</v>
       </c>
       <c r="N6" t="n">
-        <v>434807.6013457114</v>
+        <v>450620.0426883193</v>
       </c>
       <c r="O6" t="n">
-        <v>179385.8405562564</v>
+        <v>191841.0239757394</v>
       </c>
       <c r="P6" t="n">
-        <v>413388.2508166626</v>
+        <v>425354.0795984379</v>
       </c>
     </row>
   </sheetData>
@@ -26635,7 +26675,7 @@
         <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="L2" t="n">
         <v>450</v>
@@ -26647,10 +26687,10 @@
         <v>450</v>
       </c>
       <c r="O2" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="P2" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
@@ -26857,10 +26897,10 @@
         <v>369</v>
       </c>
       <c r="K2" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L2" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26869,7 +26909,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27094,7 +27134,7 @@
         <v>369</v>
       </c>
       <c r="P2" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -27322,10 +27362,10 @@
         <v>411</v>
       </c>
       <c r="I2" t="n">
-        <v>270.7281754064649</v>
+        <v>213.4523553048227</v>
       </c>
       <c r="J2" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27334,25 +27374,25 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>105.9550288567718</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>411</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T2" t="n">
         <v>411</v>
@@ -27404,22 +27444,22 @@
         <v>234.8539677838776</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K3" t="n">
         <v>104.7763862222222</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M3" t="n">
         <v>384.7447782656031</v>
       </c>
       <c r="N3" t="n">
-        <v>69.60510147483944</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P3" t="n">
         <v>105.4847073258963</v>
@@ -27428,7 +27468,7 @@
         <v>190.354460434013</v>
       </c>
       <c r="R3" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S3" t="n">
         <v>340.140588939824</v>
@@ -27480,16 +27520,16 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J4" t="n">
         <v>169.4692651351351</v>
       </c>
       <c r="K4" t="n">
-        <v>72.78303219988396</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M4" t="n">
         <v>225.2274288888889</v>
@@ -27559,7 +27599,7 @@
         <v>411</v>
       </c>
       <c r="I5" t="n">
-        <v>136.407413904614</v>
+        <v>213.4523553048228</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27571,10 +27611,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -27583,13 +27623,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>345.8537262184868</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T5" t="n">
         <v>411</v>
@@ -27638,7 +27678,7 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I6" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J6" t="n">
         <v>102.2561356901127</v>
@@ -27647,19 +27687,19 @@
         <v>104.7763862222222</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M6" t="n">
         <v>384.7447782656031</v>
       </c>
       <c r="N6" t="n">
-        <v>199.2278292259869</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q6" t="n">
         <v>190.354460434013</v>
@@ -27714,7 +27754,7 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H7" t="n">
-        <v>187.0916881625086</v>
+        <v>216.4223735483871</v>
       </c>
       <c r="I7" t="n">
         <v>198.9797601612903</v>
@@ -27723,19 +27763,19 @@
         <v>169.4692651351351</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L7" t="n">
         <v>227.9959222222222</v>
       </c>
       <c r="M7" t="n">
-        <v>8.175859139768278</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N7" t="n">
         <v>224.3149960555556</v>
       </c>
       <c r="O7" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P7" t="n">
         <v>301.8909021922657</v>
@@ -27796,10 +27836,10 @@
         <v>411</v>
       </c>
       <c r="I8" t="n">
-        <v>136.407413904614</v>
+        <v>213.4523553048228</v>
       </c>
       <c r="J8" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27808,25 +27848,25 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>240.2757903586227</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>411</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T8" t="n">
         <v>411</v>
@@ -27875,13 +27915,13 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I9" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K9" t="n">
-        <v>45.55290580315706</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L9" t="n">
         <v>113.9979611111111</v>
@@ -27890,7 +27930,7 @@
         <v>384.7447782656031</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O9" t="n">
         <v>141.2247768981573</v>
@@ -27951,13 +27991,13 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H10" t="n">
-        <v>187.0916881625086</v>
+        <v>216.4223735483871</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K10" t="n">
         <v>209.5527724444444</v>
@@ -27966,13 +28006,13 @@
         <v>227.9959222222222</v>
       </c>
       <c r="M10" t="n">
-        <v>167.0721119917493</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N10" t="n">
         <v>224.3149960555556</v>
       </c>
       <c r="O10" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P10" t="n">
         <v>301.8909021922657</v>
@@ -28036,7 +28076,7 @@
         <v>136.407413904614</v>
       </c>
       <c r="J11" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28045,25 +28085,25 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>285.0416833791834</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>400</v>
+        <v>96.44154632831248</v>
       </c>
       <c r="S11" t="n">
-        <v>400</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T11" t="n">
         <v>400</v>
@@ -28112,7 +28152,7 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I12" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J12" t="n">
         <v>102.2561356901127</v>
@@ -28121,10 +28161,10 @@
         <v>104.7763862222222</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N12" t="n">
         <v>350.7819770626954</v>
@@ -28136,7 +28176,7 @@
         <v>105.4847073258963</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.8356066388539</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R12" t="n">
         <v>380.5048676619724</v>
@@ -28194,7 +28234,7 @@
         <v>198.9797601612903</v>
       </c>
       <c r="J13" t="n">
-        <v>58.13365163831232</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K13" t="n">
         <v>209.5527724444444</v>
@@ -28203,10 +28243,10 @@
         <v>227.9959222222222</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O13" t="n">
         <v>212.2016842222222</v>
@@ -28270,10 +28310,10 @@
         <v>415</v>
       </c>
       <c r="I14" t="n">
-        <v>136.407413904614</v>
+        <v>207.9012885856708</v>
       </c>
       <c r="J14" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28282,25 +28322,25 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>225.0030630858953</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>415</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T14" t="n">
         <v>415</v>
@@ -28349,13 +28389,13 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I15" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L15" t="n">
         <v>113.9979611111111</v>
@@ -28364,7 +28404,7 @@
         <v>384.7447782656031</v>
       </c>
       <c r="N15" t="n">
-        <v>234.860941947032</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O15" t="n">
         <v>141.2247768981573</v>
@@ -28373,7 +28413,7 @@
         <v>105.4847073258963</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R15" t="n">
         <v>380.5048676619724</v>
@@ -28425,7 +28465,7 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H16" t="n">
-        <v>187.0916881625086</v>
+        <v>216.4223735483871</v>
       </c>
       <c r="I16" t="n">
         <v>198.9797601612903</v>
@@ -28440,13 +28480,13 @@
         <v>227.9959222222222</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O16" t="n">
-        <v>126.6020991971994</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P16" t="n">
         <v>301.8909021922657</v>
@@ -28507,7 +28547,7 @@
         <v>420</v>
       </c>
       <c r="I17" t="n">
-        <v>136.407413904614</v>
+        <v>201.1279546004508</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28519,25 +28559,25 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>414.0649046082434</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>420</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T17" t="n">
         <v>420</v>
@@ -28589,31 +28629,31 @@
         <v>234.8539677838776</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M18" t="n">
         <v>384.7447782656031</v>
       </c>
       <c r="N18" t="n">
-        <v>327.0528415918216</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O18" t="n">
         <v>141.2247768981573</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R18" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S18" t="n">
         <v>340.140588939824</v>
@@ -28665,16 +28705,16 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I19" t="n">
-        <v>178.9570636121498</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J19" t="n">
         <v>169.4692651351351</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M19" t="n">
         <v>225.2274288888889</v>
@@ -28683,7 +28723,7 @@
         <v>224.3149960555556</v>
       </c>
       <c r="O19" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P19" t="n">
         <v>301.8909021922657</v>
@@ -28744,10 +28784,10 @@
         <v>420</v>
       </c>
       <c r="I20" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J20" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28756,25 +28796,25 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>71.5913924931354</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>420</v>
+        <v>315.3049356860527</v>
       </c>
       <c r="T20" t="n">
         <v>420</v>
@@ -28823,16 +28863,16 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I21" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K21" t="n">
         <v>104.7763862222222</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M21" t="n">
         <v>384.7447782656031</v>
@@ -28841,13 +28881,13 @@
         <v>350.7819770626954</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.1134113204254</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R21" t="n">
         <v>380.5048676619724</v>
@@ -28902,25 +28942,25 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J22" t="n">
         <v>169.4692651351351</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L22" t="n">
         <v>227.9959222222222</v>
       </c>
       <c r="M22" t="n">
-        <v>176.1885702788165</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N22" t="n">
         <v>224.3149960555556</v>
       </c>
       <c r="O22" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P22" t="n">
         <v>301.8909021922657</v>
@@ -28981,10 +29021,10 @@
         <v>420</v>
       </c>
       <c r="I23" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J23" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -28993,25 +29033,25 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>71.5913924931354</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>420</v>
+        <v>315.3049356860526</v>
       </c>
       <c r="T23" t="n">
         <v>420</v>
@@ -29063,22 +29103,22 @@
         <v>234.8539677838776</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K24" t="n">
-        <v>92.40329082186631</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L24" t="n">
         <v>113.9979611111111</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N24" t="n">
         <v>350.7819770626954</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P24" t="n">
         <v>105.4847073258963</v>
@@ -29087,7 +29127,7 @@
         <v>190.354460434013</v>
       </c>
       <c r="R24" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S24" t="n">
         <v>340.140588939824</v>
@@ -29139,7 +29179,7 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J25" t="n">
         <v>169.4692651351351</v>
@@ -29148,16 +29188,16 @@
         <v>209.5527724444444</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M25" t="n">
-        <v>194.6317200565943</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N25" t="n">
         <v>224.3149960555556</v>
       </c>
       <c r="O25" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P25" t="n">
         <v>301.8909021922657</v>
@@ -29218,10 +29258,10 @@
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J26" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29230,22 +29270,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>300.4235869277981</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>400</v>
+        <v>96.44154632831237</v>
       </c>
       <c r="S26" t="n">
         <v>250.2973349495345</v>
@@ -29297,7 +29337,7 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I27" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J27" t="n">
         <v>102.2561356901127</v>
@@ -29309,7 +29349,7 @@
         <v>113.9979611111111</v>
       </c>
       <c r="M27" t="n">
-        <v>198.1566788651111</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N27" t="n">
         <v>350.7819770626954</v>
@@ -29318,13 +29358,13 @@
         <v>141.2247768981573</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R27" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S27" t="n">
         <v>340.140588939824</v>
@@ -29376,16 +29416,16 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J28" t="n">
         <v>169.4692651351351</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L28" t="n">
-        <v>75.65041638668967</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M28" t="n">
         <v>225.2274288888889</v>
@@ -29434,10 +29474,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="D29" t="n">
         <v>410.3391557398498</v>
@@ -29452,13 +29492,13 @@
         <v>410.8327491714383</v>
       </c>
       <c r="H29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="I29" t="n">
         <v>136.407413904614</v>
       </c>
       <c r="J29" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29467,43 +29507,43 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>198.2757903586226</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>422</v>
+        <v>299.7676213950697</v>
       </c>
       <c r="T29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="U29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="V29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="W29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="X29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="Y29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30">
@@ -29534,7 +29574,7 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I30" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J30" t="n">
         <v>102.2561356901127</v>
@@ -29549,16 +29589,16 @@
         <v>384.7447782656031</v>
       </c>
       <c r="N30" t="n">
-        <v>167.9747660741828</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P30" t="n">
         <v>105.4847073258963</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R30" t="n">
         <v>380.5048676619724</v>
@@ -29576,7 +29616,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W30" t="n">
-        <v>422</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X30" t="n">
         <v>419.8627394453875</v>
@@ -29610,7 +29650,7 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H31" t="n">
-        <v>187.0916881625086</v>
+        <v>216.4223735483871</v>
       </c>
       <c r="I31" t="n">
         <v>198.9797601612903</v>
@@ -29619,16 +29659,16 @@
         <v>169.4692651351351</v>
       </c>
       <c r="K31" t="n">
-        <v>125.4489534800276</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M31" t="n">
         <v>225.2274288888889</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O31" t="n">
         <v>212.2016842222222</v>
@@ -29637,10 +29677,10 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q31" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="R31" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="S31" t="n">
         <v>409.541226054864</v>
@@ -29692,7 +29732,7 @@
         <v>435.0277392702956</v>
       </c>
       <c r="I32" t="n">
-        <v>136.407413904614</v>
+        <v>168.7274685988204</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29704,25 +29744,25 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>127.8185859206865</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>450</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -29774,16 +29814,16 @@
         <v>234.8539677838776</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M33" t="n">
-        <v>142.7020251756232</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N33" t="n">
         <v>350.7819770626954</v>
@@ -29792,7 +29832,7 @@
         <v>141.2247768981573</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q33" t="n">
         <v>190.354460434013</v>
@@ -29850,10 +29890,10 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K34" t="n">
         <v>209.5527724444444</v>
@@ -29865,7 +29905,7 @@
         <v>225.2274288888889</v>
       </c>
       <c r="N34" t="n">
-        <v>21.92768963299892</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O34" t="n">
         <v>212.2016842222222</v>
@@ -29929,10 +29969,10 @@
         <v>435.0277392702956</v>
       </c>
       <c r="I35" t="n">
-        <v>270.7281754064649</v>
+        <v>168.7274685988203</v>
       </c>
       <c r="J35" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -29944,22 +29984,22 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>408.4548181737454</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -30008,13 +30048,13 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I36" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J36" t="n">
         <v>102.2561356901127</v>
       </c>
       <c r="K36" t="n">
-        <v>26.51086956780304</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L36" t="n">
         <v>113.9979611111111</v>
@@ -30026,13 +30066,13 @@
         <v>350.7819770626954</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R36" t="n">
         <v>380.5048676619724</v>
@@ -30087,10 +30127,10 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J37" t="n">
-        <v>22.84012246633225</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K37" t="n">
         <v>209.5527724444444</v>
@@ -30099,7 +30139,7 @@
         <v>227.9959222222222</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N37" t="n">
         <v>224.3149960555556</v>
@@ -30166,10 +30206,10 @@
         <v>435.0277392702956</v>
       </c>
       <c r="I38" t="n">
-        <v>136.407413904614</v>
+        <v>168.7274685988204</v>
       </c>
       <c r="J38" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30178,10 +30218,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>163.3105092903701</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30190,13 +30230,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>450</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -30245,7 +30285,7 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I39" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J39" t="n">
         <v>102.2561356901127</v>
@@ -30257,13 +30297,13 @@
         <v>113.9979611111111</v>
       </c>
       <c r="M39" t="n">
-        <v>37.4744198627468</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N39" t="n">
         <v>350.7819770626954</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P39" t="n">
         <v>105.4847073258963</v>
@@ -30272,7 +30312,7 @@
         <v>190.354460434013</v>
       </c>
       <c r="R39" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S39" t="n">
         <v>340.140588939824</v>
@@ -30324,7 +30364,7 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J40" t="n">
         <v>169.4692651351351</v>
@@ -30336,13 +30376,13 @@
         <v>227.9959222222222</v>
       </c>
       <c r="M40" t="n">
-        <v>185.4962484353822</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O40" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P40" t="n">
         <v>301.8909021922657</v>
@@ -30382,31 +30422,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="I41" t="n">
-        <v>270.7281754064649</v>
+        <v>241.1569692505107</v>
       </c>
       <c r="J41" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30415,43 +30455,43 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>196.7209218773325</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>389</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="U41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="V41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="W41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="X41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Y41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42">
@@ -30488,16 +30528,16 @@
         <v>102.2561356901127</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L42" t="n">
         <v>113.9979611111111</v>
       </c>
       <c r="M42" t="n">
-        <v>182.7294380859786</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O42" t="n">
         <v>141.2247768981573</v>
@@ -30518,19 +30558,19 @@
         <v>388.5340187629571</v>
       </c>
       <c r="U42" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="V42" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="W42" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="X42" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Y42" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
@@ -30561,13 +30601,13 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I43" t="n">
-        <v>182.7798852686526</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J43" t="n">
         <v>169.4692651351351</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L43" t="n">
         <v>227.9959222222222</v>
@@ -30576,22 +30616,22 @@
         <v>225.2274288888889</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O43" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P43" t="n">
         <v>301.8909021922657</v>
       </c>
       <c r="Q43" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="R43" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="S43" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="T43" t="n">
         <v>223.1403870791274</v>
@@ -30619,31 +30659,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I44" t="n">
         <v>270.7281754064649</v>
       </c>
       <c r="J44" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30652,43 +30692,43 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>351.4481946046052</v>
+        <v>49.47331308388186</v>
       </c>
       <c r="N44" t="n">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="T44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="U44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="V44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="W44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="X44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Y44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45">
@@ -30698,10 +30738,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D45" t="n">
         <v>347.9376868977026</v>
@@ -30725,49 +30765,49 @@
         <v>102.2561356901127</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="O45" t="n">
         <v>141.2247768981573</v>
       </c>
       <c r="P45" t="n">
-        <v>101.1247079440316</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q45" t="n">
         <v>190.354460434013</v>
       </c>
       <c r="R45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="S45" t="n">
         <v>340.140588939824</v>
       </c>
       <c r="T45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="U45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="V45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="W45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="X45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Y45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46">
@@ -30798,10 +30838,10 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J46" t="n">
-        <v>44.97689200162293</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K46" t="n">
         <v>209.5527724444444</v>
@@ -30813,7 +30853,7 @@
         <v>225.2274288888889</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O46" t="n">
         <v>212.2016842222222</v>
@@ -30822,13 +30862,13 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q46" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="R46" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="S46" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="T46" t="n">
         <v>223.1403870791274</v>

--- a/model/Outputs/2. No PV/Output Files/10/Output_57_43.xlsx
+++ b/model/Outputs/2. No PV/Output Files/10/Output_57_43.xlsx
@@ -23,6 +23,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net demand" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net surplus" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unmet Demand" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Household Surplus" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +542,26 @@
       </c>
       <c r="B10" t="n">
         <v>25040.62090061318</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>VoLL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Household Surplus</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>336829.395781581</v>
       </c>
     </row>
   </sheetData>
@@ -26084,6 +26105,152 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>surplus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7918.736889744564</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14614.20533007971</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>21309.67377041484</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>28046.45697924684</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>34741.1577122792</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41407.82250897076</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48070.79012951394</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>54733.75775005711</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>61463.6796747108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>68111.47016480152</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>74695.95704312871</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>81270.66828935764</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>87845.37953558654</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>94574.36561820359</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>101579.7589154767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
